--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1074747.747393684</v>
+        <v>-1077304.063220934</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>332.4032783410971</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>188.2294983731955</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>60.16890147207355</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>107.5410272749255</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>53.1955089102274</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.76404188060936</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>299.1079600617856</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>41.74347609701282</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>166.6628257988636</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>275.804133788203</v>
       </c>
       <c r="G8" t="n">
-        <v>262.9129962942489</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>43.43892678932765</v>
+        <v>194.6493049874282</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>106.3652565620429</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>104.4262124629297</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>60.6471314173121</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272864</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>206.7582264966213</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766865</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>176.76214411214</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695761</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803359</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>34.59690177051169</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>78.91051008678185</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>137.433710145004</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569567</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012163</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>78.91051008678185</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634825</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>97.54185816719739</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>171.1529885179057</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261745</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308923</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652574</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808188</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545305</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545303</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2269.968910186251</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E2" t="n">
         <v>1190.154071768027</v>
@@ -4322,10 +4322,10 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
@@ -4334,10 +4334,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3025.184346698694</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>3025.184346698694</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2694.121459355123</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2694.121459355123</v>
       </c>
       <c r="X2" t="n">
-        <v>2656.568750250373</v>
+        <v>2694.121459355123</v>
       </c>
       <c r="Y2" t="n">
-        <v>2656.568750250373</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.2385409879452</v>
+        <v>2727.771326083265</v>
       </c>
       <c r="C4" t="n">
-        <v>678.4618728343355</v>
+        <v>2727.771326083265</v>
       </c>
       <c r="D4" t="n">
-        <v>528.3452334219998</v>
+        <v>2727.771326083265</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>2579.858232500872</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>2727.771326083265</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1918.208919851714</v>
+        <v>1215.758282883553</v>
       </c>
       <c r="C5" t="n">
-        <v>1549.246402911303</v>
+        <v>846.7957659431409</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.980704304552</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="E5" t="n">
-        <v>805.192451706308</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4586,7 +4586,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176916</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915836</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>2304.808759915836</v>
+        <v>1602.358122947674</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4638,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218339</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218339</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372932</v>
@@ -4750,25 +4750,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>878.7218784474649</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>878.7218784474649</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438285</v>
+        <v>878.7218784474649</v>
       </c>
       <c r="V7" t="n">
-        <v>463.4378502581076</v>
+        <v>878.7218784474649</v>
       </c>
       <c r="W7" t="n">
-        <v>463.4378502581076</v>
+        <v>589.3047084105042</v>
       </c>
       <c r="X7" t="n">
-        <v>235.4482993600903</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.4482993600903</v>
+        <v>361.3151575124868</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1767.87852028569</v>
+        <v>2212.771568013855</v>
       </c>
       <c r="C8" t="n">
-        <v>1398.916003345278</v>
+        <v>1843.809051073444</v>
       </c>
       <c r="D8" t="n">
-        <v>1040.650304738528</v>
+        <v>1485.543352466693</v>
       </c>
       <c r="E8" t="n">
-        <v>1040.650304738528</v>
+        <v>1099.755099868449</v>
       </c>
       <c r="F8" t="n">
-        <v>629.6643999489202</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>2599.371408077977</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>609.2899331452389</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U10" t="n">
-        <v>609.2899331452389</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="V10" t="n">
-        <v>354.6054449393521</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="W10" t="n">
-        <v>354.6054449393521</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="X10" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y10" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="11">
@@ -5033,37 +5033,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468473</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.9745311434721</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>869.9745311434721</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>719.8578917311363</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>571.9447981487432</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>425.0548506508328</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5194,7 +5194,7 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,7 +5215,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
@@ -5224,25 +5224,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258107</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.82229605222</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015259</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117242</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.622995973712</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5300,25 +5300,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703778</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,7 +5452,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
@@ -5464,22 +5464,22 @@
         <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603205</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>2227.361618603205</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.195150674524</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,64 +5738,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797193</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061504</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.043492616111</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.6374272687975</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5905,16 +5905,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
         <v>1248.15024091081</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602305</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.485192177545</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1431.068022140585</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>1203.078471242567</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.2858920990373</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5969,34 +5969,34 @@
         <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192514</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797193</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745243</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998423</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6142,16 +6142,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.15024091081</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6236,19 +6236,19 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438164</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998423</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6388,7 +6388,7 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.15024091081</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487569</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6455,58 +6455,58 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703773</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969296</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2223.769289033213</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>634.927936255316</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
         <v>484.8112968429803</v>
@@ -6616,16 +6616,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.15024091081</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T31" t="n">
-        <v>2098.535416025753</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U31" t="n">
-        <v>1809.460189369951</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="V31" t="n">
-        <v>1554.775701164064</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W31" t="n">
-        <v>1265.358531127103</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X31" t="n">
-        <v>1037.368980229086</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y31" t="n">
-        <v>816.5764010855557</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6686,43 +6686,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319332</v>
+        <v>926.957531531934</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656834</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942663</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O34" t="n">
         <v>2179.340199382519</v>
@@ -6880,19 +6880,19 @@
         <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532433</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838287</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594057</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518752</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797193</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,13 +7248,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,31 +7588,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,28 +7825,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>32.86961342991049</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>15.68847176642464</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.0779196265543</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,13 +22714,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>92.20568423527632</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>165.3891444418674</v>
       </c>
     </row>
     <row r="5">
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>59.15888173022591</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>114.158440889165</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>104.8770068749567</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>45.37941682720671</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194132</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>40.64330621514821</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>39.70888054695234</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>217.5407415533163</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>138.4949402405064</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>148.7507642442401</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>138.4949402405064</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>119.8635921600909</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>80.9846548059223</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-7.531752999057062e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -26314,43 +26314,43 @@
         <v>169252.1408943216</v>
       </c>
       <c r="C2" t="n">
+        <v>205260.4424660708</v>
+      </c>
+      <c r="D2" t="n">
         <v>205260.4424660707</v>
       </c>
-      <c r="D2" t="n">
-        <v>205260.4424660708</v>
-      </c>
       <c r="E2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="F2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="G2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="H2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="I2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="J2" t="n">
         <v>201786.6499225015</v>
       </c>
-      <c r="J2" t="n">
-        <v>201786.6499225014</v>
-      </c>
       <c r="K2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
+        <v>205260.4424660712</v>
+      </c>
+      <c r="N2" t="n">
         <v>205260.442466071</v>
       </c>
-      <c r="N2" t="n">
-        <v>205260.4424660712</v>
-      </c>
       <c r="O2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="P2" t="n">
         <v>205260.4424660709</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.412581696058623e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>6.449997727031587e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.0279355114</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691482</v>
+        <v>11387.33216691489</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405252</v>
@@ -26430,34 +26430,34 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186733</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186725</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186731</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186729</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186731</v>
+        <v>14826.69604186727</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.55530496078</v>
+        <v>22817.55530496084</v>
       </c>
       <c r="M4" t="n">
-        <v>22817.55530496073</v>
+        <v>22817.55530496089</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496084</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496084</v>
       </c>
       <c r="P4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496084</v>
       </c>
     </row>
     <row r="5">
@@ -26491,7 +26491,7 @@
         <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239072</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1278813.877561579</v>
+        <v>-1279173.960577297</v>
       </c>
       <c r="C6" t="n">
-        <v>3729.757800624866</v>
+        <v>3729.75780062491</v>
       </c>
       <c r="D6" t="n">
-        <v>3729.757800624793</v>
+        <v>3729.75780062488</v>
       </c>
       <c r="E6" t="n">
-        <v>-239575.0377506285</v>
+        <v>-239609.7756760638</v>
       </c>
       <c r="F6" t="n">
-        <v>85837.42405672702</v>
+        <v>85802.68613129141</v>
       </c>
       <c r="G6" t="n">
-        <v>85837.42405672699</v>
+        <v>85802.68613129156</v>
       </c>
       <c r="H6" t="n">
-        <v>85837.42405672703</v>
+        <v>85802.68613129079</v>
       </c>
       <c r="I6" t="n">
-        <v>85837.42405672694</v>
+        <v>85802.68613129157</v>
       </c>
       <c r="J6" t="n">
-        <v>-131693.7783405504</v>
+        <v>-131728.5162659861</v>
       </c>
       <c r="K6" t="n">
-        <v>85837.42405672694</v>
+        <v>85802.68613129146</v>
       </c>
       <c r="L6" t="n">
-        <v>59851.05331356314</v>
+        <v>59851.0533135631</v>
       </c>
       <c r="M6" t="n">
-        <v>-5776.256628317162</v>
+        <v>-5776.256628316449</v>
       </c>
       <c r="N6" t="n">
-        <v>79278.77130719511</v>
+        <v>79278.77130719472</v>
       </c>
       <c r="O6" t="n">
-        <v>79278.77130719462</v>
+        <v>79278.77130719469</v>
       </c>
       <c r="P6" t="n">
-        <v>79278.77130719471</v>
+        <v>79278.77130719458</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,25 +27033,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>341.3068326973553</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973562</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>37.88002074800579</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>194.0061539703366</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>381.1120038611021</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>87.12997859426798</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27822,19 +27822,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>148.0255492344291</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>85.47481752496441</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>131.0719119535084</v>
       </c>
       <c r="G8" t="n">
-        <v>148.0087293592046</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27910,7 +27910,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>182.2707285997095</v>
+        <v>31.06035040160896</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-1.463149601477198e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,22 +31841,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O12" t="n">
-        <v>200.3460366764694</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31865,7 +31865,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,34 +32075,34 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>754.0002396832319</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,34 +32461,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I20" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669225</v>
@@ -32500,10 +32500,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319844</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,7 +32576,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32634,31 +32634,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
         <v>0.1345549672467222</v>
@@ -32698,34 +32698,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669225</v>
@@ -32737,10 +32737,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832315</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32871,31 +32871,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
         <v>0.1345549672467222</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043693</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,43 +33014,43 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622654</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742441</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33108,31 +33108,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
         <v>0.1345549672467222</v>
@@ -33172,34 +33172,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669225</v>
@@ -33211,10 +33211,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,43 +33251,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>164.285322933819</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071789</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214701</v>
+        <v>466.5925882502517</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742441</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33345,31 +33345,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
         <v>0.1345549672467222</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663284</v>
@@ -33494,34 +33494,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.6544928674244</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,19 +33974,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,19 +34448,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O12" t="n">
-        <v>57.74979223202499</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.7309431539454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998987</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875399</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641942</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998982</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992802</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193523</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902372</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>592.133804440247</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992802</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193523</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>25.7309431539448</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641942</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238456</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071399</v>
+        <v>332.6181808359215</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J32" t="n">
         <v>285.7087110396421</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402472</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.557074493085</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819473</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980853</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.6869047919382</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
